--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3788275</v>
+        <v>1.326952</v>
       </c>
       <c r="H2">
-        <v>0.757655</v>
+        <v>2.653904</v>
       </c>
       <c r="I2">
-        <v>0.07061342889271996</v>
+        <v>0.1426351819553841</v>
       </c>
       <c r="J2">
-        <v>0.05378730327014564</v>
+        <v>0.1138525221884241</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.057665</v>
+        <v>0.08210149999999999</v>
       </c>
       <c r="N2">
-        <v>0.11533</v>
+        <v>0.164203</v>
       </c>
       <c r="O2">
-        <v>0.01620051839411325</v>
+        <v>0.01959206455542894</v>
       </c>
       <c r="P2">
-        <v>0.01129612699459945</v>
+        <v>0.0143098977453608</v>
       </c>
       <c r="Q2">
-        <v>0.0218450877875</v>
+        <v>0.108944749628</v>
       </c>
       <c r="R2">
-        <v>0.08738035114999999</v>
+        <v>0.4357789985119999</v>
       </c>
       <c r="S2">
-        <v>0.001143974153647918</v>
+        <v>0.002794517692745238</v>
       </c>
       <c r="T2">
-        <v>0.0006075882084365993</v>
+        <v>0.001629217950567772</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3788275</v>
+        <v>1.326952</v>
       </c>
       <c r="H3">
-        <v>0.757655</v>
+        <v>2.653904</v>
       </c>
       <c r="I3">
-        <v>0.07061342889271996</v>
+        <v>0.1426351819553841</v>
       </c>
       <c r="J3">
-        <v>0.05378730327014564</v>
+        <v>0.1138525221884241</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>9.243680000000001</v>
       </c>
       <c r="O3">
-        <v>0.8656458734026811</v>
+        <v>0.7352800102707316</v>
       </c>
       <c r="P3">
-        <v>0.9053826686676408</v>
+        <v>0.8055645487039627</v>
       </c>
       <c r="Q3">
-        <v>1.167253395066667</v>
+        <v>4.088639887786667</v>
       </c>
       <c r="R3">
-        <v>7.0035203704</v>
+        <v>24.53183932672</v>
       </c>
       <c r="S3">
-        <v>0.06112622332779669</v>
+        <v>0.1048767980531225</v>
       </c>
       <c r="T3">
-        <v>0.04869809217516019</v>
+        <v>0.09171555565552579</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3788275</v>
+        <v>1.326952</v>
       </c>
       <c r="H4">
-        <v>0.757655</v>
+        <v>2.653904</v>
       </c>
       <c r="I4">
-        <v>0.07061342889271996</v>
+        <v>0.1426351819553841</v>
       </c>
       <c r="J4">
-        <v>0.05378730327014564</v>
+        <v>0.1138525221884241</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.411003</v>
+        <v>0.012461</v>
       </c>
       <c r="N4">
-        <v>0.822006</v>
+        <v>0.037383</v>
       </c>
       <c r="O4">
-        <v>0.1154679903153686</v>
+        <v>0.002973596297573126</v>
       </c>
       <c r="P4">
-        <v>0.08051230526595606</v>
+        <v>0.003257838817895063</v>
       </c>
       <c r="Q4">
-        <v>0.1556992389825</v>
+        <v>0.016535148872</v>
       </c>
       <c r="R4">
-        <v>0.62279695593</v>
+        <v>0.099210893232</v>
       </c>
       <c r="S4">
-        <v>0.008153590723519556</v>
+        <v>0.0004241394489661993</v>
       </c>
       <c r="T4">
-        <v>0.004330539780318522</v>
+        <v>0.0003709131663007072</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3788275</v>
+        <v>1.326952</v>
       </c>
       <c r="H5">
-        <v>0.757655</v>
+        <v>2.653904</v>
       </c>
       <c r="I5">
-        <v>0.07061342889271996</v>
+        <v>0.1426351819553841</v>
       </c>
       <c r="J5">
-        <v>0.05378730327014564</v>
+        <v>0.1138525221884241</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.009559333333333333</v>
+        <v>1.0147595</v>
       </c>
       <c r="N5">
-        <v>0.028678</v>
+        <v>2.029519</v>
       </c>
       <c r="O5">
-        <v>0.002685617887837104</v>
+        <v>0.2421543288762665</v>
       </c>
       <c r="P5">
-        <v>0.002808899071803719</v>
+        <v>0.1768677147327815</v>
       </c>
       <c r="Q5">
-        <v>0.003621338348333333</v>
+        <v>1.346537148044</v>
       </c>
       <c r="R5">
-        <v>0.02172803009</v>
+        <v>5.386148592175998</v>
       </c>
       <c r="S5">
-        <v>0.0001896406877558021</v>
+        <v>0.03453972676055019</v>
       </c>
       <c r="T5">
-        <v>0.0001510831062303372</v>
+        <v>0.02013683541602987</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6384586666666666</v>
+        <v>0.6384586666666667</v>
       </c>
       <c r="H6">
         <v>1.915376</v>
       </c>
       <c r="I6">
-        <v>0.1190086666348337</v>
+        <v>0.06862845686278926</v>
       </c>
       <c r="J6">
-        <v>0.1359760178291683</v>
+        <v>0.08216965969348369</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.057665</v>
+        <v>0.08210149999999999</v>
       </c>
       <c r="N6">
-        <v>0.11533</v>
+        <v>0.164203</v>
       </c>
       <c r="O6">
-        <v>0.01620051839411325</v>
+        <v>0.01959206455542894</v>
       </c>
       <c r="P6">
-        <v>0.01129612699459945</v>
+        <v>0.0143098977453608</v>
       </c>
       <c r="Q6">
-        <v>0.03681671901333333</v>
+        <v>0.05241841422133334</v>
       </c>
       <c r="R6">
-        <v>0.22090031408</v>
+        <v>0.314510485328</v>
       </c>
       <c r="S6">
-        <v>0.001928002092876516</v>
+        <v>0.001344573157195237</v>
       </c>
       <c r="T6">
-        <v>0.001536002365618203</v>
+        <v>0.001175839427984847</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.6384586666666666</v>
+        <v>0.6384586666666667</v>
       </c>
       <c r="H7">
         <v>1.915376</v>
       </c>
       <c r="I7">
-        <v>0.1190086666348337</v>
+        <v>0.06862845686278926</v>
       </c>
       <c r="J7">
-        <v>0.1359760178291683</v>
+        <v>0.08216965969348369</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>9.243680000000001</v>
       </c>
       <c r="O7">
-        <v>0.8656458734026811</v>
+        <v>0.7352800102707316</v>
       </c>
       <c r="P7">
-        <v>0.9053826686676408</v>
+        <v>0.8055645487039627</v>
       </c>
       <c r="Q7">
         <v>1.967235869297778</v>
@@ -889,10 +889,10 @@
         <v>17.70512282368</v>
       </c>
       <c r="S7">
-        <v>0.1030193611715991</v>
+        <v>0.05046113246693615</v>
       </c>
       <c r="T7">
-        <v>0.1231103298969711</v>
+        <v>0.06619296482813938</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,46 +915,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.6384586666666666</v>
+        <v>0.6384586666666667</v>
       </c>
       <c r="H8">
         <v>1.915376</v>
       </c>
       <c r="I8">
-        <v>0.1190086666348337</v>
+        <v>0.06862845686278926</v>
       </c>
       <c r="J8">
-        <v>0.1359760178291683</v>
+        <v>0.08216965969348369</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.411003</v>
+        <v>0.012461</v>
       </c>
       <c r="N8">
-        <v>0.822006</v>
+        <v>0.037383</v>
       </c>
       <c r="O8">
-        <v>0.1154679903153686</v>
+        <v>0.002973596297573126</v>
       </c>
       <c r="P8">
-        <v>0.08051230526595606</v>
+        <v>0.003257838817895063</v>
       </c>
       <c r="Q8">
-        <v>0.262408427376</v>
+        <v>0.007955833445333333</v>
       </c>
       <c r="R8">
-        <v>1.574450564256</v>
+        <v>0.071602501008</v>
       </c>
       <c r="S8">
-        <v>0.0137416915664359</v>
+        <v>0.0002040733252353472</v>
       </c>
       <c r="T8">
-        <v>0.01094774265631108</v>
+        <v>0.0002676955070026585</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,46 +977,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.6384586666666666</v>
+        <v>0.6384586666666667</v>
       </c>
       <c r="H9">
         <v>1.915376</v>
       </c>
       <c r="I9">
-        <v>0.1190086666348337</v>
+        <v>0.06862845686278926</v>
       </c>
       <c r="J9">
-        <v>0.1359760178291683</v>
+        <v>0.08216965969348369</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.009559333333333333</v>
+        <v>1.0147595</v>
       </c>
       <c r="N9">
-        <v>0.028678</v>
+        <v>2.029519</v>
       </c>
       <c r="O9">
-        <v>0.002685617887837104</v>
+        <v>0.2421543288762665</v>
       </c>
       <c r="P9">
-        <v>0.002808899071803719</v>
+        <v>0.1768677147327815</v>
       </c>
       <c r="Q9">
-        <v>0.006103239214222221</v>
+        <v>0.6478819973573333</v>
       </c>
       <c r="R9">
-        <v>0.054929152928</v>
+        <v>3.887291984143999</v>
       </c>
       <c r="S9">
-        <v>0.0003196118039221521</v>
+        <v>0.01661867791342254</v>
       </c>
       <c r="T9">
-        <v>0.0003819429102679167</v>
+        <v>0.0145331599303568</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.390581666666667</v>
+        <v>2.35048</v>
       </c>
       <c r="H10">
-        <v>4.171745</v>
+        <v>7.051439999999999</v>
       </c>
       <c r="I10">
-        <v>0.2592043598700904</v>
+        <v>0.2526550639981636</v>
       </c>
       <c r="J10">
-        <v>0.2961597474849552</v>
+        <v>0.3025068838437041</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.057665</v>
+        <v>0.08210149999999999</v>
       </c>
       <c r="N10">
-        <v>0.11533</v>
+        <v>0.164203</v>
       </c>
       <c r="O10">
-        <v>0.01620051839411325</v>
+        <v>0.01959206455542894</v>
       </c>
       <c r="P10">
-        <v>0.01129612699459945</v>
+        <v>0.0143098977453608</v>
       </c>
       <c r="Q10">
-        <v>0.08018789180833333</v>
+        <v>0.19297793372</v>
       </c>
       <c r="R10">
-        <v>0.48112735085</v>
+        <v>1.15786760232</v>
       </c>
       <c r="S10">
-        <v>0.004199244999909751</v>
+        <v>0.00495003432410805</v>
       </c>
       <c r="T10">
-        <v>0.003345458118278558</v>
+        <v>0.004328842575071144</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.390581666666667</v>
+        <v>2.35048</v>
       </c>
       <c r="H11">
-        <v>4.171745</v>
+        <v>7.051439999999999</v>
       </c>
       <c r="I11">
-        <v>0.2592043598700904</v>
+        <v>0.2526550639981636</v>
       </c>
       <c r="J11">
-        <v>0.2961597474849552</v>
+        <v>0.3025068838437041</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>9.243680000000001</v>
       </c>
       <c r="O11">
-        <v>0.8656458734026811</v>
+        <v>0.7352800102707316</v>
       </c>
       <c r="P11">
-        <v>0.9053826686676408</v>
+        <v>0.8055645487039627</v>
       </c>
       <c r="Q11">
-        <v>4.284697313511112</v>
+        <v>7.242361655466667</v>
       </c>
       <c r="R11">
-        <v>38.5622758216</v>
+        <v>65.1812548992</v>
       </c>
       <c r="S11">
-        <v>0.2243791844895273</v>
+        <v>0.1857722180515221</v>
       </c>
       <c r="T11">
-        <v>0.2681379025298634</v>
+        <v>0.2436888213633955</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.390581666666667</v>
+        <v>2.35048</v>
       </c>
       <c r="H12">
-        <v>4.171745</v>
+        <v>7.051439999999999</v>
       </c>
       <c r="I12">
-        <v>0.2592043598700904</v>
+        <v>0.2526550639981636</v>
       </c>
       <c r="J12">
-        <v>0.2961597474849552</v>
+        <v>0.3025068838437041</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.411003</v>
+        <v>0.012461</v>
       </c>
       <c r="N12">
-        <v>0.822006</v>
+        <v>0.037383</v>
       </c>
       <c r="O12">
-        <v>0.1154679903153686</v>
+        <v>0.002973596297573126</v>
       </c>
       <c r="P12">
-        <v>0.08051230526595606</v>
+        <v>0.003257838817895063</v>
       </c>
       <c r="Q12">
-        <v>0.571533236745</v>
+        <v>0.02928933128</v>
       </c>
       <c r="R12">
-        <v>3.42919942047</v>
+        <v>0.26360398152</v>
       </c>
       <c r="S12">
-        <v>0.02992980651518091</v>
+        <v>0.0007512941628680404</v>
       </c>
       <c r="T12">
-        <v>0.02384450399699718</v>
+        <v>0.0009855186688664918</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.390581666666667</v>
+        <v>2.35048</v>
       </c>
       <c r="H13">
-        <v>4.171745</v>
+        <v>7.051439999999999</v>
       </c>
       <c r="I13">
-        <v>0.2592043598700904</v>
+        <v>0.2526550639981636</v>
       </c>
       <c r="J13">
-        <v>0.2961597474849552</v>
+        <v>0.3025068838437041</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.009559333333333333</v>
+        <v>1.0147595</v>
       </c>
       <c r="N13">
-        <v>0.028678</v>
+        <v>2.029519</v>
       </c>
       <c r="O13">
-        <v>0.002685617887837104</v>
+        <v>0.2421543288762665</v>
       </c>
       <c r="P13">
-        <v>0.002808899071803719</v>
+        <v>0.1768677147327815</v>
       </c>
       <c r="Q13">
-        <v>0.01329303367888889</v>
+        <v>2.385171909559999</v>
       </c>
       <c r="R13">
-        <v>0.11963730311</v>
+        <v>14.31103145736</v>
       </c>
       <c r="S13">
-        <v>0.0006961238654724809</v>
+        <v>0.06118151745966545</v>
       </c>
       <c r="T13">
-        <v>0.0008318828398161145</v>
+        <v>0.0535037012363709</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.629466</v>
+        <v>3.2723885</v>
       </c>
       <c r="H14">
-        <v>3.258932</v>
+        <v>6.544777</v>
       </c>
       <c r="I14">
-        <v>0.3037323888157666</v>
+        <v>0.3517517808678886</v>
       </c>
       <c r="J14">
-        <v>0.231357496249325</v>
+        <v>0.2807710333948734</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.057665</v>
+        <v>0.08210149999999999</v>
       </c>
       <c r="N14">
-        <v>0.11533</v>
+        <v>0.164203</v>
       </c>
       <c r="O14">
-        <v>0.01620051839411325</v>
+        <v>0.01959206455542894</v>
       </c>
       <c r="P14">
-        <v>0.01129612699459945</v>
+        <v>0.0143098977453608</v>
       </c>
       <c r="Q14">
-        <v>0.09396315689000001</v>
+        <v>0.26866800443275</v>
       </c>
       <c r="R14">
-        <v>0.37585262756</v>
+        <v>1.074672017731</v>
       </c>
       <c r="S14">
-        <v>0.004920622151897786</v>
+        <v>0.006891543598250767</v>
       </c>
       <c r="T14">
-        <v>0.00261344365878494</v>
+        <v>0.004017804777739923</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.629466</v>
+        <v>3.2723885</v>
       </c>
       <c r="H15">
-        <v>3.258932</v>
+        <v>6.544777</v>
       </c>
       <c r="I15">
-        <v>0.3037323888157666</v>
+        <v>0.3517517808678886</v>
       </c>
       <c r="J15">
-        <v>0.231357496249325</v>
+        <v>0.2807710333948734</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>9.243680000000001</v>
       </c>
       <c r="O15">
-        <v>0.8656458734026811</v>
+        <v>0.7352800102707316</v>
       </c>
       <c r="P15">
-        <v>0.9053826686676408</v>
+        <v>0.8055645487039627</v>
       </c>
       <c r="Q15">
-        <v>5.020754091626668</v>
+        <v>10.08297070989333</v>
       </c>
       <c r="R15">
-        <v>30.12452454976</v>
+        <v>60.49782425936001</v>
       </c>
       <c r="S15">
-        <v>0.262924688997107</v>
+        <v>0.2586360530492892</v>
       </c>
       <c r="T15">
-        <v>0.2094670673704775</v>
+        <v>0.2261791908058864</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,55 +1402,55 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.629466</v>
+        <v>3.2723885</v>
       </c>
       <c r="H16">
-        <v>3.258932</v>
+        <v>6.544777</v>
       </c>
       <c r="I16">
-        <v>0.3037323888157666</v>
+        <v>0.3517517808678886</v>
       </c>
       <c r="J16">
-        <v>0.231357496249325</v>
+        <v>0.2807710333948734</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.411003</v>
+        <v>0.012461</v>
       </c>
       <c r="N16">
-        <v>0.822006</v>
+        <v>0.037383</v>
       </c>
       <c r="O16">
-        <v>0.1154679903153686</v>
+        <v>0.002973596297573126</v>
       </c>
       <c r="P16">
-        <v>0.08051230526595606</v>
+        <v>0.003257838817895063</v>
       </c>
       <c r="Q16">
-        <v>0.6697154143980001</v>
+        <v>0.0407772330985</v>
       </c>
       <c r="R16">
-        <v>2.678861657592</v>
+        <v>0.244663398591</v>
       </c>
       <c r="S16">
-        <v>0.0350713685302427</v>
+        <v>0.001045967793253507</v>
       </c>
       <c r="T16">
-        <v>0.01862712536359293</v>
+        <v>0.0009147067715343296</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,55 +1464,55 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.629466</v>
+        <v>3.2723885</v>
       </c>
       <c r="H17">
-        <v>3.258932</v>
+        <v>6.544777</v>
       </c>
       <c r="I17">
-        <v>0.3037323888157666</v>
+        <v>0.3517517808678886</v>
       </c>
       <c r="J17">
-        <v>0.231357496249325</v>
+        <v>0.2807710333948734</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.009559333333333333</v>
+        <v>1.0147595</v>
       </c>
       <c r="N17">
-        <v>0.028678</v>
+        <v>2.029519</v>
       </c>
       <c r="O17">
-        <v>0.002685617887837104</v>
+        <v>0.2421543288762665</v>
       </c>
       <c r="P17">
-        <v>0.002808899071803719</v>
+        <v>0.1768677147327815</v>
       </c>
       <c r="Q17">
-        <v>0.01557660864933333</v>
+        <v>3.320687318065749</v>
       </c>
       <c r="R17">
-        <v>0.093459651896</v>
+        <v>13.282749272263</v>
       </c>
       <c r="S17">
-        <v>0.0008157091365191173</v>
+        <v>0.0851782164270951</v>
       </c>
       <c r="T17">
-        <v>0.0006498598564695613</v>
+        <v>0.04965933103971273</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3680043333333333</v>
+        <v>0.9949899999999999</v>
       </c>
       <c r="H18">
-        <v>1.104013</v>
+        <v>2.98497</v>
       </c>
       <c r="I18">
-        <v>0.06859599111481123</v>
+        <v>0.1069523085189122</v>
       </c>
       <c r="J18">
-        <v>0.07837588618194732</v>
+        <v>0.1280552586516997</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,28 +1553,28 @@
         <v>0.5</v>
       </c>
       <c r="M18">
-        <v>0.057665</v>
+        <v>0.08210149999999999</v>
       </c>
       <c r="N18">
-        <v>0.11533</v>
+        <v>0.164203</v>
       </c>
       <c r="O18">
-        <v>0.01620051839411325</v>
+        <v>0.01959206455542894</v>
       </c>
       <c r="P18">
-        <v>0.01129612699459945</v>
+        <v>0.0143098977453608</v>
       </c>
       <c r="Q18">
-        <v>0.02122096988166667</v>
+        <v>0.08169017148499999</v>
       </c>
       <c r="R18">
-        <v>0.12732581929</v>
+        <v>0.4901410289099999</v>
       </c>
       <c r="S18">
-        <v>0.001111290615817929</v>
+        <v>0.002095416532854681</v>
       </c>
       <c r="T18">
-        <v>0.0008853439636255488</v>
+        <v>0.001832457657061552</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3680043333333333</v>
+        <v>0.9949899999999999</v>
       </c>
       <c r="H19">
-        <v>1.104013</v>
+        <v>2.98497</v>
       </c>
       <c r="I19">
-        <v>0.06859599111481123</v>
+        <v>0.1069523085189122</v>
       </c>
       <c r="J19">
-        <v>0.07837588618194732</v>
+        <v>0.1280552586516997</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>9.243680000000001</v>
       </c>
       <c r="O19">
-        <v>0.8656458734026811</v>
+        <v>0.7352800102707316</v>
       </c>
       <c r="P19">
-        <v>0.9053826686676408</v>
+        <v>0.8055645487039627</v>
       </c>
       <c r="Q19">
-        <v>1.133904765315556</v>
+        <v>3.065789721066667</v>
       </c>
       <c r="R19">
-        <v>10.20514288784</v>
+        <v>27.5921074896</v>
       </c>
       <c r="S19">
-        <v>0.05937983664050332</v>
+        <v>0.07863989450626424</v>
       </c>
       <c r="T19">
-        <v>0.07096016899060274</v>
+        <v>0.1031567766449257</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3680043333333333</v>
+        <v>0.9949899999999999</v>
       </c>
       <c r="H20">
-        <v>1.104013</v>
+        <v>2.98497</v>
       </c>
       <c r="I20">
-        <v>0.06859599111481123</v>
+        <v>0.1069523085189122</v>
       </c>
       <c r="J20">
-        <v>0.07837588618194732</v>
+        <v>0.1280552586516997</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.411003</v>
+        <v>0.012461</v>
       </c>
       <c r="N20">
-        <v>0.822006</v>
+        <v>0.037383</v>
       </c>
       <c r="O20">
-        <v>0.1154679903153686</v>
+        <v>0.002973596297573126</v>
       </c>
       <c r="P20">
-        <v>0.08051230526595606</v>
+        <v>0.003257838817895063</v>
       </c>
       <c r="Q20">
-        <v>0.151250885013</v>
+        <v>0.01239857039</v>
       </c>
       <c r="R20">
-        <v>0.9075053100779999</v>
+        <v>0.11158713351</v>
       </c>
       <c r="S20">
-        <v>0.007920641237718131</v>
+        <v>0.0003180329886287361</v>
       </c>
       <c r="T20">
-        <v>0.00631022327377077</v>
+        <v>0.0004171833924710998</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,55 +1712,55 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3680043333333333</v>
+        <v>0.9949899999999999</v>
       </c>
       <c r="H21">
-        <v>1.104013</v>
+        <v>2.98497</v>
       </c>
       <c r="I21">
-        <v>0.06859599111481123</v>
+        <v>0.1069523085189122</v>
       </c>
       <c r="J21">
-        <v>0.07837588618194732</v>
+        <v>0.1280552586516997</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.009559333333333333</v>
+        <v>1.0147595</v>
       </c>
       <c r="N21">
-        <v>0.028678</v>
+        <v>2.029519</v>
       </c>
       <c r="O21">
-        <v>0.002685617887837104</v>
+        <v>0.2421543288762665</v>
       </c>
       <c r="P21">
-        <v>0.002808899071803719</v>
+        <v>0.1768677147327815</v>
       </c>
       <c r="Q21">
-        <v>0.003517876090444444</v>
+        <v>1.009675554905</v>
       </c>
       <c r="R21">
-        <v>0.03166088481399999</v>
+        <v>6.058053329429998</v>
       </c>
       <c r="S21">
-        <v>0.0001842226207718521</v>
+        <v>0.02589896449116458</v>
       </c>
       <c r="T21">
-        <v>0.0002201499539482658</v>
+        <v>0.02264884095724137</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.95947</v>
+        <v>0.7198493333333333</v>
       </c>
       <c r="H22">
-        <v>2.87841</v>
+        <v>2.159548</v>
       </c>
       <c r="I22">
-        <v>0.1788451646717781</v>
+        <v>0.07737720779686223</v>
       </c>
       <c r="J22">
-        <v>0.2043435489844586</v>
+        <v>0.09264464222781496</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,28 +1801,28 @@
         <v>0.5</v>
       </c>
       <c r="M22">
-        <v>0.057665</v>
+        <v>0.08210149999999999</v>
       </c>
       <c r="N22">
-        <v>0.11533</v>
+        <v>0.164203</v>
       </c>
       <c r="O22">
-        <v>0.01620051839411325</v>
+        <v>0.01959206455542894</v>
       </c>
       <c r="P22">
-        <v>0.01129612699459945</v>
+        <v>0.0143098977453608</v>
       </c>
       <c r="Q22">
-        <v>0.05532783755</v>
+        <v>0.05910071004066667</v>
       </c>
       <c r="R22">
-        <v>0.3319670253</v>
+        <v>0.354604260244</v>
       </c>
       <c r="S22">
-        <v>0.002897384379963355</v>
+        <v>0.001515979250274964</v>
       </c>
       <c r="T22">
-        <v>0.002308290679855596</v>
+        <v>0.001325735356935568</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.95947</v>
+        <v>0.7198493333333333</v>
       </c>
       <c r="H23">
-        <v>2.87841</v>
+        <v>2.159548</v>
       </c>
       <c r="I23">
-        <v>0.1788451646717781</v>
+        <v>0.07737720779686223</v>
       </c>
       <c r="J23">
-        <v>0.2043435489844586</v>
+        <v>0.09264464222781496</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>9.243680000000001</v>
       </c>
       <c r="O23">
-        <v>0.8656458734026811</v>
+        <v>0.7352800102707316</v>
       </c>
       <c r="P23">
-        <v>0.9053826686676408</v>
+        <v>0.8055645487039627</v>
       </c>
       <c r="Q23">
-        <v>2.956344549866667</v>
+        <v>2.218018961848889</v>
       </c>
       <c r="R23">
-        <v>26.60710094880001</v>
+        <v>19.96217065664</v>
       </c>
       <c r="S23">
-        <v>0.1548165787761477</v>
+        <v>0.0568939141435974</v>
       </c>
       <c r="T23">
-        <v>0.1850091077045659</v>
+        <v>0.07463123940608984</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,55 +1898,55 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.95947</v>
+        <v>0.7198493333333333</v>
       </c>
       <c r="H24">
-        <v>2.87841</v>
+        <v>2.159548</v>
       </c>
       <c r="I24">
-        <v>0.1788451646717781</v>
+        <v>0.07737720779686223</v>
       </c>
       <c r="J24">
-        <v>0.2043435489844586</v>
+        <v>0.09264464222781496</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.411003</v>
+        <v>0.012461</v>
       </c>
       <c r="N24">
-        <v>0.822006</v>
+        <v>0.037383</v>
       </c>
       <c r="O24">
-        <v>0.1154679903153686</v>
+        <v>0.002973596297573126</v>
       </c>
       <c r="P24">
-        <v>0.08051230526595606</v>
+        <v>0.003257838817895063</v>
       </c>
       <c r="Q24">
-        <v>0.39434504841</v>
+        <v>0.008970042542666666</v>
       </c>
       <c r="R24">
-        <v>2.36607029046</v>
+        <v>0.080730382884</v>
       </c>
       <c r="S24">
-        <v>0.02065089174227137</v>
+        <v>0.000230088578621296</v>
       </c>
       <c r="T24">
-        <v>0.01645217019496557</v>
+        <v>0.0003018213117197757</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.95947</v>
+        <v>0.7198493333333333</v>
       </c>
       <c r="H25">
-        <v>2.87841</v>
+        <v>2.159548</v>
       </c>
       <c r="I25">
-        <v>0.1788451646717781</v>
+        <v>0.07737720779686223</v>
       </c>
       <c r="J25">
-        <v>0.2043435489844586</v>
+        <v>0.09264464222781496</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.009559333333333333</v>
+        <v>1.0147595</v>
       </c>
       <c r="N25">
-        <v>0.028678</v>
+        <v>2.029519</v>
       </c>
       <c r="O25">
-        <v>0.002685617887837104</v>
+        <v>0.2421543288762665</v>
       </c>
       <c r="P25">
-        <v>0.002808899071803719</v>
+        <v>0.1768677147327815</v>
       </c>
       <c r="Q25">
-        <v>0.009171893553333333</v>
+        <v>0.7304739495686665</v>
       </c>
       <c r="R25">
-        <v>0.08254704198</v>
+        <v>4.382843697412</v>
       </c>
       <c r="S25">
-        <v>0.0004803097733956999</v>
+        <v>0.01873722582436859</v>
       </c>
       <c r="T25">
-        <v>0.0005739804050715234</v>
+        <v>0.01638584615306977</v>
       </c>
     </row>
   </sheetData>
